--- a/data/metadata/Informe-01-010024-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010024-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>vc-oficinas</t>
   </si>
@@ -106,7 +106,7 @@
     <t>iaest-measure:vc-edificios-singulares</t>
   </si>
   <si>
-    <t>iaest-dimension:vc-espectaculos</t>
+    <t>iaest-measure:vc-espectaculos</t>
   </si>
   <si>
     <t>iaest-measure:vc-ocio-hosteleria</t>
@@ -136,9 +136,6 @@
     <t>iaest-measure:vc-comercial</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
     <t>skos:Concept</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
     <t>URI-Provincia</t>
   </si>
   <si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-vc-espectaculos.xlsx</t>
   </si>
 </sst>
 </file>
@@ -368,39 +365,39 @@
         <v>41</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>28</v>
@@ -409,117 +406,117 @@
         <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>49</v>
@@ -531,9 +528,6 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010024-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010024-A-TC-TM-TP.xlsx
@@ -11,159 +11,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
-  <si>
-    <t>vc-oficinas</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>vc-residencial</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>vc-cultural</t>
-  </si>
-  <si>
-    <t>vc-edificios-singulares</t>
-  </si>
-  <si>
-    <t>vc-espectaculos</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>vc-ocio-hosteleria</t>
-  </si>
-  <si>
-    <t>vc-almacen-estacionamiento</t>
-  </si>
-  <si>
-    <t>vc-deportivo</t>
-  </si>
-  <si>
-    <t>vc-religioso</t>
-  </si>
-  <si>
-    <t>vc-sin-definir</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>vc-industrial</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>vc-suelo-vacante</t>
-  </si>
-  <si>
-    <t>vc-comercial</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>vc-sanidad-benefic</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+  <si>
+    <t>VC Espectáculos</t>
+  </si>
+  <si>
+    <t>VC Almacén, estacionamiento</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>VC Religioso</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>VC Suelo vacante</t>
+  </si>
+  <si>
+    <t>VC Edificios singulares</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>VC Ocio, hostelería</t>
+  </si>
+  <si>
+    <t>VC Cultural</t>
+  </si>
+  <si>
+    <t>VC Sin definir</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>VC Deportivo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>VC Residencial</t>
+  </si>
+  <si>
+    <t>VC Industrial</t>
+  </si>
+  <si>
+    <t>VC Sanidad, benefic</t>
+  </si>
+  <si>
+    <t>CCAA código</t>
+  </si>
+  <si>
+    <t>VC Comercial</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>VC Oficinas</t>
+  </si>
+  <si>
+    <t>iaest-measure:vc-espectaculos</t>
+  </si>
+  <si>
+    <t>iaest-measure:vc-almacen-estacionamiento</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:vc-religioso</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:vc-suelo-vacante</t>
+  </si>
+  <si>
+    <t>iaest-measure:vc-edificios-singulares</t>
+  </si>
+  <si>
+    <t>iaest-measure:vc-ocio-hosteleria</t>
+  </si>
+  <si>
+    <t>iaest-measure:vc-cultural</t>
+  </si>
+  <si>
+    <t>iaest-measure:vc-sin-definir</t>
+  </si>
+  <si>
+    <t>iaest-measure:vc-deportivo</t>
+  </si>
+  <si>
+    <t>iaest-measure:total</t>
+  </si>
+  <si>
+    <t>iaest-measure:vc-residencial</t>
+  </si>
+  <si>
+    <t>iaest-measure:vc-industrial</t>
+  </si>
+  <si>
+    <t>iaest-measure:vc-sanidad-benefic</t>
+  </si>
+  <si>
+    <t>iaest-measure:vc-comercial</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
     <t>iaest-measure:vc-oficinas</t>
   </si>
   <si>
-    <t>iaest-dimension:ccaa-nombre</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refPeriod</t>
-  </si>
-  <si>
-    <t>iaest-measure:vc-residencial</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:vc-cultural</t>
-  </si>
-  <si>
-    <t>iaest-measure:vc-edificios-singulares</t>
-  </si>
-  <si>
-    <t>iaest-measure:vc-espectaculos</t>
-  </si>
-  <si>
-    <t>iaest-measure:vc-ocio-hosteleria</t>
-  </si>
-  <si>
-    <t>iaest-measure:vc-almacen-estacionamiento</t>
-  </si>
-  <si>
-    <t>iaest-measure:vc-deportivo</t>
-  </si>
-  <si>
-    <t>iaest-measure:vc-religioso</t>
-  </si>
-  <si>
-    <t>iaest-measure:vc-sin-definir</t>
-  </si>
-  <si>
-    <t>iaest-measure:vc-industrial</t>
-  </si>
-  <si>
-    <t>iaest-measure:total</t>
-  </si>
-  <si>
-    <t>iaest-measure:vc-suelo-vacante</t>
-  </si>
-  <si>
-    <t>iaest-measure:vc-comercial</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:vc-sanidad-benefic</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
   </si>
   <si>
     <t>URI-Municipio</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>URI-comarca</t>
   </si>
   <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -323,13 +320,13 @@
         <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>32</v>
@@ -338,16 +335,16 @@
         <v>33</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>37</v>
@@ -356,19 +353,19 @@
         <v>38</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>41</v>
@@ -376,158 +373,155 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
